--- a/c++primer/Terms.xlsx
+++ b/c++primer/Terms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Documents\my_markdown\c++primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6268FA85-33A0-4B8F-8F21-662369F987C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4C4CB-6E81-4400-B0EF-42307D7EE2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13188" yWindow="5952" windowWidth="13116" windowHeight="9984" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
+    <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
   <si>
     <t>argument</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -681,6 +681,114 @@
   </si>
   <si>
     <t>Special-purpose type that has no operationss and no value. It is not possible to define a variable of type `void`.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A blueprint from which specific class types can be created. To use a class template, we must specify additional information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compiler extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature tha is added to the language by a particualr compiler.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">container </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A type whose obejcts hold a collection of objects of a given type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>copy initialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form of initialization tha uses an `=`. The newly created object is a copy of the given initalizer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct initialzation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form of initialization that dose not include an `=`.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value used in the subscript operator to denote the element to retrieve from a object.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实例化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler process that generates a specific template class or function.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iterator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A type used to access and navigate among the elements of a container</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value initialization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initialization in which built-in types are initialized to zero and class types are initialized by the class's default constructor. Object of a class type can be value initialized only if the class has a default construcotr.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1048,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6A1DC-9AB6-40B0-800E-065BAFB4EE94}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1834,6 +1942,105 @@
         <v>162</v>
       </c>
     </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E51">
     <sortCondition ref="B19"/>

--- a/c++primer/Terms.xlsx
+++ b/c++primer/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Documents\my_markdown\c++primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F4C4CB-6E81-4400-B0EF-42307D7EE2E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBE19A-0046-48E2-88F6-92FBD05F12E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="199">
   <si>
     <t>argument</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,42 @@
   </si>
   <si>
     <t>Initialization in which built-in types are initialized to zero and class types are initialized by the class's default constructor. Object of a class type can be value initialized only if the class has a default construcotr.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>An explicit conversion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order of evaluation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求值顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order, if any, in which the operands to an operator are evaluated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overloaded operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载运算符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version of an operator that is defined for use with a class type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1156,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6A1DC-9AB6-40B0-800E-065BAFB4EE94}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B24" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2041,6 +2077,39 @@
         <v>189</v>
       </c>
     </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E51">
     <sortCondition ref="B19"/>

--- a/c++primer/Terms.xlsx
+++ b/c++primer/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Documents\my_markdown\c++primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEBE19A-0046-48E2-88F6-92FBD05F12E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF2724E-FC5A-4F2F-ADA9-5ABE057BFF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>argument</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -825,6 +825,18 @@
   </si>
   <si>
     <t>Version of an operator that is defined for use with a class type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flow of control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution path through a program</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,10 +1204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6A1DC-9AB6-40B0-800E-065BAFB4EE94}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B1:B1048576"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2110,6 +2122,17 @@
         <v>198</v>
       </c>
     </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E51">
     <sortCondition ref="B19"/>

--- a/c++primer/Terms.xlsx
+++ b/c++primer/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Documents\my_markdown\c++primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF2724E-FC5A-4F2F-ADA9-5ABE057BFF5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD1596F-0405-4357-9491-FFB45C4F4CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
   </bookViews>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
-  <si>
-    <t>argument</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="229">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value passed to a function.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实参</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -837,6 +829,122 @@
   </si>
   <si>
     <t>Execution path through a program</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values  supplied in a function call that are used to initialize the function's parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arguments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automatic object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects that exist only during the execution of a function. They are created when control passed throught their definition and are destroyed at the end of the block in which they are defined.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiler process by which a call to an overloaded function is resolved. Arguments used in the call are compared to the parameter list of each overloaded function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compilation step in which multiple object files are put together to form a executable program.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Format into which the compiler transforms our source code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File holding object code generated by the compiler from a given source file.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overload resolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function matching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local variables declared inside the function parameter list. Parameters are initialized by the arguments provided in each function call.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursive funtionc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function that calls itself directly of indirectly.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6A1DC-9AB6-40B0-800E-065BAFB4EE94}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1220,917 +1328,1016 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" t="s">
         <v>137</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" t="s">
         <v>143</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
         <v>55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
         <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
         <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" t="s">
         <v>104</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" t="s">
         <v>107</v>
-      </c>
-      <c r="C21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
         <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="B24" t="s">
+      <c r="E24" t="s">
         <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" t="s">
         <v>110</v>
-      </c>
-      <c r="C25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
         <v>113</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
         <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" t="s">
         <v>119</v>
-      </c>
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
         <v>116</v>
-      </c>
-      <c r="C29" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" t="s">
         <v>125</v>
-      </c>
-      <c r="C33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" t="s">
         <v>128</v>
-      </c>
-      <c r="C34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
         <v>1</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
         <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
         <v>146</v>
-      </c>
-      <c r="C38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
         <v>1</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
         <v>131</v>
-      </c>
-      <c r="C41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
         <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
         <v>26</v>
-      </c>
-      <c r="C43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
         <v>29</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" t="s">
         <v>1</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>32</v>
-      </c>
-      <c r="C45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" t="s">
-        <v>149</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E48" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>37</v>
-      </c>
-      <c r="C50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
         <v>89</v>
-      </c>
-      <c r="C51" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
         <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" t="s">
         <v>153</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E54" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+      <c r="E56" t="s">
         <v>160</v>
-      </c>
-      <c r="C56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
         <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="E58" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
         <v>169</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-      <c r="E59" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" t="s">
         <v>172</v>
-      </c>
-      <c r="C60" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" t="s">
         <v>175</v>
-      </c>
-      <c r="C61" t="s">
-        <v>176</v>
-      </c>
-      <c r="E61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" t="s">
         <v>178</v>
-      </c>
-      <c r="C62" t="s">
-        <v>179</v>
-      </c>
-      <c r="E62" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="E63" t="s">
         <v>181</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
-      </c>
-      <c r="E63" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" t="s">
         <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>185</v>
-      </c>
-      <c r="E64" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" t="s">
         <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="E66" t="s">
         <v>190</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+      <c r="E67" t="s">
         <v>193</v>
-      </c>
-      <c r="C67" t="s">
-        <v>194</v>
-      </c>
-      <c r="E67" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E68" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
-      </c>
-      <c r="E68" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" t="s">
         <v>199</v>
       </c>
-      <c r="C69" t="s">
-        <v>200</v>
-      </c>
-      <c r="E69" t="s">
-        <v>201</v>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2139,5 +2346,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/c++primer/Terms.xlsx
+++ b/c++primer/Terms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c\Documents\my_markdown\c++primer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD1596F-0405-4357-9491-FFB45C4F4CF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CE96FB-CDE2-4E3F-922F-311B62C93612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{A3A7E571-BA28-4F5B-98AA-CB7A0515FF3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="250">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -945,6 +945,90 @@
   </si>
   <si>
     <t>Function that calls itself directly of indirectly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abstract data type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data structure that encapsulates its implementation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ mechanism for defining our own abstract data types.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The keyword `class` (or `struct`) followed by the class name followed by a semicolon.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encapsulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Separation of implementation from interface; encapsulation hides the implementation details of a type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implementation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The (usually `private`) members of a class that define the data and any operations that are not intended for use by code that uses the type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The (public) operations supported by a type.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name lookup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process by which the use of a name is matched to its declaration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1312,10 +1396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6A1DC-9AB6-40B0-800E-065BAFB4EE94}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1327,20 +1411,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1348,13 +1426,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1362,16 +1443,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>200</v>
+        <v>96</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1379,16 +1457,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
+      <c r="E4" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,13 +1474,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,111 +1491,102 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>138</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>139</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1522,55 +1594,49 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>164</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1578,46 +1644,55 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1625,125 +1700,107 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
+        <v>174</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1751,102 +1808,105 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
       <c r="B34" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>127</v>
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="E35" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1854,52 +1914,46 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,109 +1978,76 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,315 +2055,455 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="C51" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>80</v>
       </c>
       <c r="E55" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" t="s">
+        <v>85</v>
+      </c>
+      <c r="E72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" t="s">
+        <v>154</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>185</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C76" t="s">
         <v>186</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
-      </c>
-      <c r="E66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" t="s">
-        <v>195</v>
-      </c>
-      <c r="E68" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" t="s">
-        <v>198</v>
-      </c>
-      <c r="E69" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" t="s">
-        <v>203</v>
-      </c>
-      <c r="E70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" t="s">
-        <v>206</v>
-      </c>
-      <c r="E71" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" t="s">
-        <v>209</v>
-      </c>
-      <c r="E72" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="E73" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
-      </c>
-      <c r="E74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" t="s">
-        <v>221</v>
-      </c>
-      <c r="E76" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="C77" t="s">
-        <v>224</v>
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>156</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" t="s">
+        <v>242</v>
+      </c>
+      <c r="E83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" t="s">
+        <v>245</v>
+      </c>
+      <c r="E84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="E85" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E51">
-    <sortCondition ref="B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E81">
+    <sortCondition ref="B1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
